--- a/DateBase/orders/Dang Nguyen_2025-3-8.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-3-8.xlsx
@@ -875,6 +875,9 @@
       <c r="G2" t="str">
         <v>045201722203361571030151524151013251547231351351051051059751020230.5125.531.520303.5232118</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
